--- a/channels.xlsx
+++ b/channels.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\YouTubeProjectV1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\YoutubeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>titleChannel</t>
   </si>
@@ -78,6 +78,36 @@
   </si>
   <si>
     <t>SMTOWN</t>
+  </si>
+  <si>
+    <t>UCaO6TYtlC8U5ttz62hTrZgg</t>
+  </si>
+  <si>
+    <t>JYP Entertainment</t>
+  </si>
+  <si>
+    <t>UC3lz95UPhKJW1aS3_za6SuQ</t>
+  </si>
+  <si>
+    <t>United CUBE</t>
+  </si>
+  <si>
+    <t>UC3IZKseVpdzPSBaWxBxundA</t>
+  </si>
+  <si>
+    <t>HYBE LABELS</t>
+  </si>
+  <si>
+    <t>UCg8ZzloDPTrOiGztK0C9txQ</t>
+  </si>
+  <si>
+    <t>THEBLACKLABEL</t>
+  </si>
+  <si>
+    <t>UCIhPBu7gVRi1tnre0ZfXadg</t>
+  </si>
+  <si>
+    <t>SECRET NUMBER</t>
   </si>
 </sst>
 </file>
@@ -428,15 +458,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -504,6 +534,46 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
